--- a/biology/Botanique/Golden_Orange/Golden_Orange.xlsx
+++ b/biology/Botanique/Golden_Orange/Golden_Orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Golden Orange est un cultivar de pommier domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Épicarpe: Jaune à joues rouges[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Épicarpe: Jaune à joues rouges.
 Chair: blanche, juteuse, sucrée-acidulée, proche de la Golden Delicious.
 Calibre: moyen.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Règlementations et protections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>GOLDEN ORANGE est une variété inscrite au registre de l'Union européenne[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GOLDEN ORANGE est une variété inscrite au registre de l'Union européenne:
 Numéro de variété: 10182
 Date d'inscription: 26/06/1998
 Demandeur: C.R.A.-FRU</t>
@@ -576,7 +592,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Création en 1979, Trento, Italie (Institut de recherches de Rome).
 Distribuée vers 1996.
@@ -608,10 +626,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Golden Orange résulte du croisement de deux cultivars américains :
-Golden Delicious x PRI 1956-6; plus précisément, c'est la Ed. Gould Golden qui a été utilisée[3].
+Golden Delicious x PRI 1956-6; plus précisément, c'est la Ed. Gould Golden qui a été utilisée.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de floraison: E (mi-tardive: 4 jours après Golden).
 Pollinisateurs: Delbardivine delfloga, Florina, Crimson Crisp, GoldRush...
@@ -672,10 +694,12 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La variété Golden Orange
-possède le gène Vf de résistance aux races communes de tavelure du pommier[4],
+possède le gène Vf de résistance aux races communes de tavelure du pommier,
 est peu sensible à l'oïdium,
 est tolérante aux pucerons cendrés.</t>
         </is>
@@ -705,7 +729,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Utilisation: alternative à la Golden Delicious pour des cultures plus respectueuses de l'environnement, par exemple en agriculture biologique.
 Vigueur du cultivar: moyenne à bonne
